--- a/project/windows10/Parameters.xlsx
+++ b/project/windows10/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren Buesen\Desktop\cv_sim_med_ads_mono_08may2021\project\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2773F3-3FFA-4FB3-95BE-8DE7EE30B485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD342C0A-50E5-4DE2-A241-16CC196700DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11544" yWindow="924" windowWidth="11184" windowHeight="10824" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,6 +362,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,356 +959,356 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="1" customWidth="1"/>
     <col min="5" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>500</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>195</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.126</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>6.7000000000000002E-6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>95000000</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1500</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>500</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>100</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.2</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
     </row>

--- a/project/windows10/Parameters.xlsx
+++ b/project/windows10/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren Buesen\Desktop\cv_sim_med_ads_mono_08may2021\project\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD342C0A-50E5-4DE2-A241-16CC196700DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115545D8-0DE1-487A-86CA-C69AEF174662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11544" yWindow="924" windowWidth="11184" windowHeight="10824" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/project/windows10/Parameters.xlsx
+++ b/project/windows10/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren Buesen\Desktop\cv_sim_med_ads_mono_08may2021\project\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115545D8-0DE1-487A-86CA-C69AEF174662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCBAD24-D52A-4021-B676-414A1A479C63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11544" yWindow="924" windowWidth="11184" windowHeight="10824" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
